--- a/Project-plan-Leteći_medvjedići.xlsx
+++ b/Project-plan-Leteći_medvjedići.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zvonko\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="8115"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t>Task</t>
   </si>
@@ -30,12 +35,6 @@
     <t>Remaining Work</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>Estimate (days)</t>
   </si>
   <si>
@@ -202,12 +201,15 @@
   </si>
   <si>
     <t>28.3.2017.</t>
+  </si>
+  <si>
+    <t>završeno</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,7 +423,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -437,7 +439,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -479,7 +481,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -512,9 +514,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -547,6 +566,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -725,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +779,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="4"/>
@@ -757,22 +793,22 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>1</v>
@@ -784,31 +820,31 @@
         <v>3</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2">
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2">
         <v>4</v>
@@ -818,25 +854,25 @@
     <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2">
         <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -846,25 +882,25 @@
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="F5" s="2">
         <v>7</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="I5" s="2">
         <v>4</v>
@@ -874,25 +910,25 @@
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="F6" s="2">
         <v>7</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="I6" s="2">
         <v>5</v>
@@ -902,25 +938,25 @@
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2">
         <v>14</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="I7" s="2">
         <v>8</v>
@@ -930,25 +966,25 @@
     <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2">
         <v>14</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="I8" s="2">
         <v>2</v>
@@ -958,25 +994,25 @@
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" s="2">
         <v>17</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="I9" s="2">
         <v>3</v>
@@ -986,25 +1022,25 @@
     <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2">
         <v>12</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="I10" s="2">
         <v>6</v>
@@ -1014,25 +1050,25 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2">
         <v>5</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="I11" s="2">
         <v>5</v>
@@ -1042,25 +1078,25 @@
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F12" s="2">
         <v>6</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="I12" s="2">
         <v>10</v>
@@ -1070,25 +1106,25 @@
     <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="2">
         <v>4</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="I13" s="2">
         <v>4</v>
@@ -1098,25 +1134,25 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F14" s="2">
         <v>11</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="I14" s="2">
         <v>4</v>
@@ -1269,7 +1305,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F28" s="1">
         <f>SUM(F3:F27)</f>
